--- a/RIO_GRANDE.xlsx
+++ b/RIO_GRANDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9775C7-12C7-4629-B10B-4AE61FC27281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDC9E0B-065C-4CB7-A094-AE5BE0169354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1099,7 +1086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1159,36 +1146,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1222,14 +1185,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,7 +1203,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1287,7 +1245,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{37148282-7D1D-486F-BE9F-624476633CA1}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A1704E41-003A-4EC3-B072-B2F8E1648D60}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1317,10 +1275,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FBAFA2-F9E8-41D8-A5AC-F4445B8B76BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4138A6C9-1E18-47DA-A664-3985C93592BC}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1316,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D35EB1-89FC-483C-8205-AE26D8F152E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182C682E-B827-42C1-B4B6-BA61B14FB22B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1379,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3924810-8DE3-4D12-ACCB-644E2294292C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748D531A-F5E2-4B84-965A-191E4D9E3D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1398,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF39C2D9-B3D2-833F-340B-A26960DED5D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335476B6-1EDC-DD45-2F0C-FF3F43414A47}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1489,7 +1447,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7761ECEA-96C9-D9DC-1D46-89BC127B88DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF9E425-0D5C-3A21-2E37-6CDC301D1D6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1508,7 +1466,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37747C42-2B83-0528-6B17-9250725D5046}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCE2D60-D528-1C26-4B5B-61BE8FF39288}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1539,7 +1497,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0409334E-0731-A884-CAB6-9555129D83F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0D2975-8A8C-BBAD-4109-E94D633B0114}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1570,7 +1528,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8373D4B-17B2-761C-FAA2-5EC8AE287B21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED44A5FD-7A31-00FF-A269-8E20243961B7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1613,7 +1571,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43BA4B7-AC35-4662-B67D-E1B1496AC73D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61970EB1-8588-4729-B1E7-15F08308FB2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1609,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190C5047-4BFD-4846-A5D0-79452ACC475E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4ED9E3-7CAA-449A-AEA8-9A440FAA0148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1652,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DDA28F-20D1-4C46-8436-35AD9E4A073C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F98D67-24A6-4143-85C2-C0838E3B2977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B53979-D21F-47CD-9299-4BCE4DDBFB3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCBE41C-55F4-4D0A-AE67-70B941CC7128}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2019,98 +1977,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="40"/>
-    <col min="6" max="6" width="2" style="40" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="40"/>
+    <col min="1" max="5" width="12.5703125" style="37"/>
+    <col min="6" max="6" width="2" style="37" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="39"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="39"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="39"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="39"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="39"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5257,19 +5215,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5292,68 +5250,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5371,225 +5329,225 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="89" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="14">
         <v>385397</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>3120</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="21">
         <v>312</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="14">
         <v>15</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="22">
         <v>24869</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="14">
         <v>429252</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>2550.9</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>255.09</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="22">
         <v>24885</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="14">
         <v>537409</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>520</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>360.1</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="14">
         <v>11</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="22">
         <v>24889</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="14">
         <v>537268</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>838.2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>580.72</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="14">
         <v>21</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <v>24878</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="14">
         <v>453048</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>735</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>531.13</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="14">
         <v>10</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="22">
         <v>24896</v>
       </c>
     </row>
@@ -5614,99 +5572,100 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="23" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="26">
         <v>45839</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="28">
         <v>29486</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="28">
         <v>4153</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="30" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5731,31 +5690,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="35">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="32">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="35">
         <v>171</v>
       </c>
-      <c r="F1" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="38">
-        <v>171</v>
-      </c>
-      <c r="C2" s="36">
+      <c r="C2" s="33">
         <v>1.1308028038619231E-2</v>
       </c>
     </row>

--- a/RIO_GRANDE.xlsx
+++ b/RIO_GRANDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDC9E0B-065C-4CB7-A094-AE5BE0169354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3094AD08-DE2F-42F4-91E9-763F607E9755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,7 +1245,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A1704E41-003A-4EC3-B072-B2F8E1648D60}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CEDBE053-73EB-43F2-8E3F-AD44AB5DD640}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1275,10 +1275,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4138A6C9-1E18-47DA-A664-3985C93592BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD1DA2D-81D9-4E32-B52C-3F044C5FE1BD}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182C682E-B827-42C1-B4B6-BA61B14FB22B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ACB0F1-2311-4A8C-BA2C-49F99EEDC427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1379,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748D531A-F5E2-4B84-965A-191E4D9E3D2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8DB602-5FE1-4978-9638-7D1326888B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1398,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335476B6-1EDC-DD45-2F0C-FF3F43414A47}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B0CB66-27B4-F70A-DD0C-24F4D485B9A0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1447,7 +1447,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF9E425-0D5C-3A21-2E37-6CDC301D1D6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EA4586-3069-16F3-D3E1-C3DA768FC55E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1466,7 +1466,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCE2D60-D528-1C26-4B5B-61BE8FF39288}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE39EF3C-08B6-BD90-EA4F-396E4442F4C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1497,7 +1497,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0D2975-8A8C-BBAD-4109-E94D633B0114}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418793F6-7435-4FF3-09CD-EA32FF788E44}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1528,7 +1528,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED44A5FD-7A31-00FF-A269-8E20243961B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F31FA2F-E3BF-0EF8-5ECF-EB1570E8C9AB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61970EB1-8588-4729-B1E7-15F08308FB2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58524817-5BA1-4756-97A5-43C965FB8814}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1609,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4ED9E3-7CAA-449A-AEA8-9A440FAA0148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38A005B-579F-4EF8-BE50-F6F7724FA256}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1652,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F98D67-24A6-4143-85C2-C0838E3B2977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940CC829-77FB-4B3F-ABB6-88008B1D2823}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCBE41C-55F4-4D0A-AE67-70B941CC7128}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FFC446-F84F-4130-8746-156B0C0B3146}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/RIO_GRANDE.xlsx
+++ b/RIO_GRANDE.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3094AD08-DE2F-42F4-91E9-763F607E9755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1BDEAE5-AF21-493C-9964-435B0422F860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
     <sheet name="TCA" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="309">
   <si>
     <t>Número</t>
   </si>
@@ -953,12 +952,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1225,27 +1218,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CEDBE053-73EB-43F2-8E3F-AD44AB5DD640}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0BBF0AC1-D014-456D-86C4-C1C802882B47}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1275,10 +1253,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD1DA2D-81D9-4E32-B52C-3F044C5FE1BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09330917-3C26-4B59-9C01-29F6CBEDB7B6}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1294,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ACB0F1-2311-4A8C-BA2C-49F99EEDC427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4D8D88-756F-4DBC-AF51-5A46EB51CD72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1357,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8DB602-5FE1-4978-9638-7D1326888B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B1AAAF-9913-4E4F-8F42-B7F893CEF616}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1376,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B0CB66-27B4-F70A-DD0C-24F4D485B9A0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133CB6E7-D149-7603-B78D-2C68FE5EAF20}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1447,7 +1425,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EA4586-3069-16F3-D3E1-C3DA768FC55E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11D8587-FA92-297A-62A8-2A92F8B6D296}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1466,7 +1444,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE39EF3C-08B6-BD90-EA4F-396E4442F4C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B6EC5E-99D3-6B6B-EF56-404DE10A0CC8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1497,7 +1475,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418793F6-7435-4FF3-09CD-EA32FF788E44}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E5BFB9-9817-6449-ED09-51881ECC1309}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1528,7 +1506,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F31FA2F-E3BF-0EF8-5ECF-EB1570E8C9AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F53AB9E-3D1A-61B4-EF89-8203A4BCA755}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1549,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58524817-5BA1-4756-97A5-43C965FB8814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7CD5A5-38DB-4DAC-BC62-5EB52C9B0643}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1587,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38A005B-579F-4EF8-BE50-F6F7724FA256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E21D89A-F706-4C3E-80E5-821E2B1A9CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1630,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940CC829-77FB-4B3F-ABB6-88008B1D2823}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46DE162-257C-4E96-86A4-7B593267367E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FFC446-F84F-4130-8746-156B0C0B3146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30196CC-B6B3-44C4-9707-F7492644986F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1977,98 +1955,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5672,52 +5650,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="35">
-        <v>171</v>
-      </c>
-      <c r="C2" s="33">
-        <v>1.1308028038619231E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/RIO_GRANDE.xlsx
+++ b/RIO_GRANDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1BDEAE5-AF21-493C-9964-435B0422F860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE233BC-829D-4579-9C97-5E04DBC2489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1223,7 +1223,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{0BBF0AC1-D014-456D-86C4-C1C802882B47}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6B908182-A366-4802-9A15-207E65C01EA8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1253,10 +1253,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09330917-3C26-4B59-9C01-29F6CBEDB7B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB7155B-4E4A-4338-8228-68A4A1CDEFB5}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1294,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4D8D88-756F-4DBC-AF51-5A46EB51CD72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE00E87-355C-4998-AD72-7A39C02809DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1357,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B1AAAF-9913-4E4F-8F42-B7F893CEF616}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4C3F67-FC04-4AD2-A1AF-72567D18E732}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1376,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133CB6E7-D149-7603-B78D-2C68FE5EAF20}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84E497F-39E1-BE95-DE32-378601625729}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1425,7 +1425,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11D8587-FA92-297A-62A8-2A92F8B6D296}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47887382-7013-79BC-F8E3-8714ADDC8471}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1444,7 +1444,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B6EC5E-99D3-6B6B-EF56-404DE10A0CC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB198C8-BFA9-9E54-C48F-DDC6B93AFD27}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1475,7 +1475,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E5BFB9-9817-6449-ED09-51881ECC1309}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EBDBCC-A15A-A689-AD72-A59642D0A266}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1506,7 +1506,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F53AB9E-3D1A-61B4-EF89-8203A4BCA755}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67499423-A9AC-43FA-F183-EB4B369D5DF3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7CD5A5-38DB-4DAC-BC62-5EB52C9B0643}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03253161-2F2D-4DB2-B24B-7A2E4D085A29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1587,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E21D89A-F706-4C3E-80E5-821E2B1A9CDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D24BA1-B73D-4C56-8AF0-97BEDD7CF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,50 +1612,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46DE162-257C-4E96-86A4-7B593267367E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1943,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30196CC-B6B3-44C4-9707-F7492644986F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A331F61-6D07-4745-A630-052022767B9A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/RIO_GRANDE.xlsx
+++ b/RIO_GRANDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE233BC-829D-4579-9C97-5E04DBC2489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED05FA31-66C4-4244-B4CA-DCEBEB2858F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,17 +962,9 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1009,7 +1001,22 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1091,21 +1098,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1139,91 +1131,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6B908182-A366-4802-9A15-207E65C01EA8}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3E0E0E36-5CBC-46F2-92F8-D65B6A53C0C9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1253,7 +1261,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB7155B-4E4A-4338-8228-68A4A1CDEFB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BECB06D-7870-418C-8E21-DC0FF91714A1}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1294,7 +1302,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE00E87-355C-4998-AD72-7A39C02809DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3692D7-35E9-4198-879F-4D5655C9531E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1365,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4C3F67-FC04-4AD2-A1AF-72567D18E732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35EFAE6-75BD-41DA-A4BE-7656D66E453D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1384,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84E497F-39E1-BE95-DE32-378601625729}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05DA9E0-FD50-0671-349D-F364FA9E859E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1425,7 +1433,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47887382-7013-79BC-F8E3-8714ADDC8471}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554B2AB9-AB6C-E0D4-0354-6CFCB3E97EF9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1444,7 +1452,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB198C8-BFA9-9E54-C48F-DDC6B93AFD27}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1846EC7-87EF-A335-5BDA-E26CDCC4DD2E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1475,7 +1483,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EBDBCC-A15A-A689-AD72-A59642D0A266}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB650D77-6E90-EE5A-B864-DE376D15F493}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1506,7 +1514,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67499423-A9AC-43FA-F183-EB4B369D5DF3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63689B85-AAA1-F9A2-946F-87E09D10A688}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1549,7 +1557,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03253161-2F2D-4DB2-B24B-7A2E4D085A29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C8DDBC-9E49-42DB-8665-5A57FC69E99C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1595,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D24BA1-B73D-4C56-8AF0-97BEDD7CF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BA8088-94E0-4203-9D67-F8C14518FE0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A331F61-6D07-4745-A630-052022767B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D3843D-7FDD-4D06-95D9-ED5138646A50}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1911,98 +1919,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="32"/>
-    <col min="6" max="6" width="2" style="32" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="32"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="31"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="31"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="31"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="31"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="31"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="31"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="31"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="31"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="31"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="31"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="31"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="31"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="31"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="31"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="31"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="31"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="31"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="31"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="31"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="31"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="31"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="31"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="31"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="31"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="31"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="31"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="31"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5263,16 +5271,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" customWidth="1"/>
-    <col min="9" max="9" width="89" customWidth="1"/>
-    <col min="10" max="10" width="72.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5314,16 +5322,16 @@
       <c r="A2" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="21">
         <v>385397</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="22">
         <v>3120</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="22">
         <v>312</v>
       </c>
       <c r="F2" s="14">
@@ -5341,7 +5349,7 @@
       <c r="J2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="23">
         <v>24869</v>
       </c>
     </row>
@@ -5349,16 +5357,16 @@
       <c r="A3" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="21">
         <v>429252</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="22">
         <v>2550.9</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="22">
         <v>255.09</v>
       </c>
       <c r="F3" s="14">
@@ -5376,7 +5384,7 @@
       <c r="J3" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="23">
         <v>24885</v>
       </c>
     </row>
@@ -5384,16 +5392,16 @@
       <c r="A4" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="21">
         <v>537409</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>520</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="22">
         <v>360.1</v>
       </c>
       <c r="F4" s="14">
@@ -5411,7 +5419,7 @@
       <c r="J4" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="23">
         <v>24889</v>
       </c>
     </row>
@@ -5419,16 +5427,16 @@
       <c r="A5" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="21">
         <v>537268</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>838.2</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>580.72</v>
       </c>
       <c r="F5" s="14">
@@ -5446,7 +5454,7 @@
       <c r="J5" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="23">
         <v>24878</v>
       </c>
     </row>
@@ -5454,16 +5462,16 @@
       <c r="A6" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="21">
         <v>453048</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>735</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="22">
         <v>531.13</v>
       </c>
       <c r="F6" s="14">
@@ -5481,7 +5489,7 @@
       <c r="J6" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="23">
         <v>24896</v>
       </c>
     </row>
@@ -5512,49 +5520,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="24" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5565,41 +5573,41 @@
       <c r="B2" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>45839</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="29">
         <v>29486</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="29">
         <v>4153</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>307</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="31" t="s">
         <v>308</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="31" t="s">
         <v>308</v>
       </c>
     </row>
